--- a/TestData/Manually extracted minutiae/Normal/Template_Ale1439794734-Hamster-3-2.xlsx
+++ b/TestData/Manually extracted minutiae/Normal/Template_Ale1439794734-Hamster-3-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Perfect minutiae\Normal fingers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Manually extracted minutiae\Normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Collected Minutiae" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>X</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Minutiae data</t>
   </si>
   <si>
-    <t>Finger Header</t>
-  </si>
-  <si>
     <t>Finger header</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>4087000B6600</t>
-  </si>
-  <si>
-    <t>464D52002032300000000144000000C0010C00C800C8010000006301</t>
-  </si>
-  <si>
     <t>464D520020323000000000</t>
   </si>
   <si>
@@ -113,6 +104,18 @@
   </si>
   <si>
     <t>0000</t>
+  </si>
+  <si>
+    <t>Finger Header Top</t>
+  </si>
+  <si>
+    <t>Finger Header Bottom</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Ending</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -180,13 +183,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -199,8 +198,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,14 +481,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
@@ -509,7 +506,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -522,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -542,18 +539,18 @@
         <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>15</v>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
         <v>91.837000000000003</v>
@@ -606,8 +603,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>16</v>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>191.02</v>
@@ -654,8 +651,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>16</v>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C4">
         <v>180</v>
@@ -701,8 +698,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>16</v>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>91.837000000000003</v>
@@ -748,8 +745,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>16</v>
+      <c r="B6" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>105.714</v>
@@ -789,8 +786,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>16</v>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
         <v>145.30600000000001</v>
@@ -830,8 +827,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>16</v>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>165.714</v>
@@ -871,8 +868,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>15</v>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C9">
         <v>124.898</v>
@@ -908,15 +905,15 @@
         <v>807C00649900</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>16</v>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>63.265000000000001</v>
@@ -960,8 +957,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>15</v>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C11">
         <v>151.429</v>
@@ -1001,8 +998,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>15</v>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C12">
         <v>93.061000000000007</v>
@@ -1042,8 +1039,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>15</v>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
         <v>131.429</v>
@@ -1083,8 +1080,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>15</v>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
         <v>169.38800000000001</v>
@@ -1124,8 +1121,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>16</v>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>242.041</v>
@@ -1165,8 +1162,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>15</v>
+      <c r="B16" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C16">
         <v>154.69399999999999</v>
@@ -1206,8 +1203,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>15</v>
+      <c r="B17" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C17">
         <v>228.16300000000001</v>
@@ -1247,8 +1244,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>15</v>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C18">
         <v>128.16300000000001</v>
@@ -1288,8 +1285,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>15</v>
+      <c r="B19" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C19">
         <v>185.30600000000001</v>
@@ -1329,8 +1326,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>16</v>
+      <c r="B20" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C20">
         <v>210.61199999999999</v>
@@ -1370,8 +1367,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>15</v>
+      <c r="B21" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C21">
         <v>146.53100000000001</v>
@@ -1411,8 +1408,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>16</v>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C22">
         <v>75.102000000000004</v>
@@ -1452,8 +1449,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>16</v>
+      <c r="B23" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C23">
         <v>76.734999999999999</v>
@@ -1493,8 +1490,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>16</v>
+      <c r="B24" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C24">
         <v>158.36699999999999</v>
@@ -1534,8 +1531,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>16</v>
+      <c r="B25" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C25">
         <v>144.49</v>
@@ -1575,8 +1572,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>16</v>
+      <c r="B26" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C26">
         <v>178.77600000000001</v>
@@ -1616,8 +1613,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>16</v>
+      <c r="B27" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C27">
         <v>187.34700000000001</v>
@@ -1657,8 +1654,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>16</v>
+      <c r="B28" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C28">
         <v>202.041</v>
@@ -1698,8 +1695,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>15</v>
+      <c r="B29" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C29">
         <v>172.65299999999999</v>
@@ -1739,8 +1736,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>15</v>
+      <c r="B30" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C30">
         <v>120.408</v>
@@ -1780,8 +1777,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>16</v>
+      <c r="B31" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C31">
         <v>112.245</v>
@@ -1821,8 +1818,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>15</v>
+      <c r="B32" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C32">
         <v>73.878</v>
@@ -1862,8 +1859,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>16</v>
+      <c r="B33" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C33">
         <v>151.02000000000001</v>
@@ -1903,8 +1900,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>16</v>
+      <c r="B34" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C34">
         <v>215.91800000000001</v>
@@ -1944,8 +1941,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>16</v>
+      <c r="B35" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C35">
         <v>177.959</v>
@@ -1985,8 +1982,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>16</v>
+      <c r="B36" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C36">
         <v>128.571</v>
@@ -2026,8 +2023,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>16</v>
+      <c r="B37" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C37">
         <v>92.245000000000005</v>
@@ -2067,8 +2064,8 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>15</v>
+      <c r="B38" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C38">
         <v>156.73500000000001</v>
@@ -2108,8 +2105,8 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>15</v>
+      <c r="B39" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C39">
         <v>191.02</v>
@@ -2149,8 +2146,8 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>15</v>
+      <c r="B40" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C40">
         <v>90.611999999999995</v>
@@ -2190,8 +2187,8 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>15</v>
+      <c r="B41" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C41">
         <v>117.551</v>
@@ -2250,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2267,14 +2264,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2300,24 +2298,28 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2384,21 +2386,21 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="15" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" t="str">
         <f>DEC2HEX(SUM(27,(6*D15),3))</f>
         <v>10E</v>
@@ -2408,10 +2410,12 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2419,7 +2423,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="1" t="str">
@@ -2429,12 +2433,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="1">
         <f>COUNT('Collected Minutiae'!A2:A1000)</f>
         <v>40</v>
@@ -2444,34 +2448,21 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="str">
-        <f>CONCATENATE(C21,C22,0)</f>
-        <v>464D52002032300000000144000000C0010C00C800C80100000063014087000B66000</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
